--- a/python/ilin/pert SD t1=6 t2=5.xlsx
+++ b/python/ilin/pert SD t1=6 t2=5.xlsx
@@ -478,17 +478,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.75e-06</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.99e+00</t>
+          <t>5.94e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.101</t>
+          <t>0.0799</t>
         </is>
       </c>
     </row>
@@ -505,22 +505,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5.00e+00</t>
+          <t>4.82e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.27e-05</t>
+          <t>0.257</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.02e+00</t>
+          <t>5.12e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.273</t>
+          <t>0.225</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5.00e+00</t>
+          <t>4.82e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.24e-05</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.06e+00</t>
+          <t>5.13e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.268</t>
+          <t>0.219</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.13e-10</t>
+          <t>4.42e-06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.48e-06</t>
+          <t>3.68e-06</t>
         </is>
       </c>
     </row>
